--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_ngdppot.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_ngdppot.xlsx
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02275220724275639</v>
+        <v>-0.02275220724275639</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2118644184257772</v>
+        <v>-0.2118644184257772</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.005370852662933698</v>
+        <v>0.005370852662933698</v>
       </c>
       <c r="F6" t="n">
+        <v>0.006713565828667123</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>-0.006713565828667123</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.006713565828667123</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.001713823436418685</v>
+        <v>-0.001713823436418685</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006910145483590715</v>
+        <v>-0.0006910145483590715</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005688051810689098</v>
+        <v>-0.005688051810689098</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006713565828667123</v>
+        <v>-0.006713565828667123</v>
       </c>
     </row>
     <row r="7">
@@ -810,22 +810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0009137853717928089</v>
+        <v>-0.0009137853717928089</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07377071268619366</v>
+        <v>0.07377071268619366</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6338838438306631</v>
+        <v>0.6338838438306631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001120831357635756</v>
+        <v>-0.001120831357635756</v>
       </c>
       <c r="F7" t="n">
-        <v>2.284463429482022e-06</v>
+        <v>-2.284463429482022e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.284463429482022e-06</v>
+        <v>-2.284463429482022e-06</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.00207270153146096</v>
+        <v>0.00207270153146096</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001424619581718029</v>
+        <v>0.001424619581718029</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01275462636085932</v>
+        <v>0.01275462636085932</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -866,22 +866,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.001447264313841057</v>
+        <v>0.001447264313841057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05195126098933004</v>
+        <v>-0.05195126098933004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2826980776547515</v>
+        <v>-0.2826980776547515</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0009576113115867024</v>
+        <v>-0.0009576113115867024</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.333697355120622e-06</v>
+        <v>1.333697355120622e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.333697355120622e-06</v>
+        <v>1.333697355120622e-06</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -890,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.00642711328139138</v>
+        <v>0.00642711328139138</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0006361388010595646</v>
+        <v>0.0006361388010595646</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002331888864731931</v>
+        <v>-0.0002331888864731931</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -922,22 +922,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.00167914536270082</v>
+        <v>0.00167914536270082</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02824775880173786</v>
+        <v>-0.02824775880173786</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4787192053389714</v>
+        <v>-0.4787192053389714</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008342367671574566</v>
+        <v>-0.0008342367671574566</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.531560761872672e-06</v>
+        <v>5.531560761872672e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.531560761872672e-06</v>
+        <v>5.531560761872672e-06</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007429398197678404</v>
+        <v>-0.007429398197678404</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001782579279282921</v>
+        <v>-0.001782579279282921</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007295128586907658</v>
+        <v>-0.007295128586907658</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002236930889383312</v>
+        <v>-0.002236930889383312</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.05751570726147342</v>
+        <v>0.05751570726147342</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4576997756007937</v>
+        <v>0.4576997756007937</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0007465147505608131</v>
+        <v>-0.0007465147505608131</v>
       </c>
       <c r="F10" t="n">
-        <v>6.076646158560693e-08</v>
+        <v>-6.076646158560693e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>6.076646158560693e-08</v>
+        <v>-6.076646158560693e-08</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0009805880112852281</v>
+        <v>-0.0009805880112852281</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0008334694029506577</v>
+        <v>0.0008334694029506577</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01448567347556848</v>
+        <v>0.01448567347556848</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1034,22 +1034,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001619593463608363</v>
+        <v>0.001619593463608363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0368910320883122</v>
+        <v>-0.0368910320883122</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0622023412377819</v>
+        <v>0.0622023412377819</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000668219190211613</v>
+        <v>-0.000668219190211613</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.9882171974353e-06</v>
+        <v>3.9882171974353e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.9882171974353e-06</v>
+        <v>3.9882171974353e-06</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.004142781845805937</v>
+        <v>0.004142781845805937</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0002927904778554612</v>
+        <v>0.0002927904778554612</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01696628768593763</v>
+        <v>-0.01696628768593763</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0005180012741209117</v>
+        <v>-0.0005180012741209117</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.009760726886331136</v>
+        <v>0.009760726886331136</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1771011236526476</v>
+        <v>-0.1771011236526476</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0006086492667244685</v>
+        <v>-0.0006086492667244685</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.693214012133021e-06</v>
+        <v>2.693214012133021e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.693214012133021e-06</v>
+        <v>2.693214012133021e-06</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002486532572098549</v>
+        <v>-0.002486532572098549</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0005751093973194007</v>
+        <v>-0.0005751093973194007</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005892702466952754</v>
+        <v>-0.005892702466952754</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001640717910351302</v>
+        <v>-0.001640717910351302</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.009224378622092213</v>
+        <v>0.009224378622092213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02348221709896685</v>
+        <v>-0.02348221709896685</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005616884730419846</v>
+        <v>-0.0005616884730419846</v>
       </c>
       <c r="F13" t="n">
-        <v>1.408580763745234e-06</v>
+        <v>-1.408580763745234e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>1.408580763745234e-06</v>
+        <v>-1.408580763745234e-06</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.001567315943620684</v>
+        <v>0.001567315943620684</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0005848558949891352</v>
+        <v>0.0005848558949891352</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01733184336807455</v>
+        <v>0.01733184336807455</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1202,22 +1202,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.001998773404565573</v>
+        <v>0.001998773404565573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01271163560847183</v>
+        <v>-0.01271163560847183</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1108515697321132</v>
+        <v>0.1108515697321132</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005138691134128345</v>
+        <v>-0.0005138691134128345</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.588352747668699e-06</v>
+        <v>3.588352747668699e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.588352747668699e-06</v>
+        <v>3.588352747668699e-06</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002516129360181457</v>
+        <v>-0.0002516129360181457</v>
       </c>
       <c r="K14" t="n">
-        <v>8.99823471914971e-05</v>
+        <v>-8.99823471914971e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00667380253580494</v>
+        <v>-0.00667380253580494</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1258,22 +1258,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00046099225107573</v>
+        <v>-0.00046099225107573</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.004577294249597012</v>
+        <v>0.004577294249597012</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03520126881086529</v>
+        <v>-0.03520126881086529</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0004782343373233434</v>
+        <v>-0.0004782343373233434</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.435872119979373e-06</v>
+        <v>2.435872119979373e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.435872119979373e-06</v>
+        <v>2.435872119979373e-06</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1282,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0009096036679794859</v>
+        <v>-0.0009096036679794859</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001417767441614574</v>
+        <v>-0.0001417767441614574</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001430090808418803</v>
+        <v>-0.001430090808418803</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001408304035099761</v>
+        <v>-0.0001408304035099761</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008856187157445811</v>
+        <v>-0.0008856187157445811</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05465385875475387</v>
+        <v>-0.05465385875475387</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0004466806524433105</v>
+        <v>-0.0004466806524433105</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.083796111204433e-06</v>
+        <v>2.083796111204433e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.083796111204433e-06</v>
+        <v>2.083796111204433e-06</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.000576225074698317</v>
+        <v>0.000576225074698317</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0001188144123102312</v>
+        <v>0.0001188144123102312</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.002537637208966753</v>
+        <v>0.002537637208966753</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0002564027538131431</v>
+        <v>0.0002564027538131431</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003448624043059556</v>
+        <v>-0.003448624043059556</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.009254838138852188</v>
+        <v>0.009254838138852188</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0004181621677113541</v>
+        <v>-0.0004181621677113541</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.724802995737291e-06</v>
+        <v>2.724802995737291e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.724802995737291e-06</v>
+        <v>2.724802995737291e-06</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0004792736367597592</v>
+        <v>-0.0004792736367597592</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001284238673051496</v>
+        <v>-0.0001284238673051496</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004684461973040422</v>
+        <v>-0.004684461973040422</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1426,22 +1426,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0005867849354639974</v>
+        <v>-0.0005867849354639974</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.001334125234943066</v>
+        <v>0.001334125234943066</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.009642148927047504</v>
+        <v>0.009642148927047504</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003949450635764838</v>
+        <v>-0.0003949450635764838</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.257840657077298e-06</v>
+        <v>1.257840657077298e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.257840657077298e-06</v>
+        <v>1.257840657077298e-06</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0004442883480129362</v>
+        <v>-0.0004442883480129362</v>
       </c>
       <c r="K18" t="n">
-        <v>6.727060415185864e-05</v>
+        <v>-6.727060415185864e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.000645907117452131</v>
+        <v>0.000645907117452131</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.433592948365364e-06</v>
+        <v>-2.433592948365364e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002178392693696717</v>
+        <v>-0.002178392693696717</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02879634167581205</v>
+        <v>-0.02879634167581205</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003730094171389183</v>
+        <v>-0.0003730094171389183</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.251756674706384e-06</v>
+        <v>1.251756674706384e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.251756674706384e-06</v>
+        <v>1.251756674706384e-06</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.999770182185798e-05</v>
+        <v>-6.999770182185798e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>6.181766114496433e-05</v>
+        <v>-6.181766114496433e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003850238864099612</v>
+        <v>-0.0003850238864099612</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1538,22 +1538,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0001856933541641667</v>
+        <v>-0.0001856933541641667</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006979132427977375</v>
+        <v>-0.0006979132427977375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01866121337287464</v>
+        <v>-0.01866121337287464</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003538171426019956</v>
+        <v>-0.0003538171426019956</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.875232892959674e-07</v>
+        <v>7.875232892959674e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.875232892959674e-07</v>
+        <v>7.875232892959674e-07</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1562,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003814314390012252</v>
+        <v>-0.0003814314390012252</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001304747872776091</v>
+        <v>-0.0001304747872776091</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001823926260851053</v>
+        <v>-0.001823926260851053</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1594,22 +1594,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0003184300735678553</v>
+        <v>-0.0003184300735678553</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001874547536589532</v>
+        <v>-0.0001874547536589532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003489698954873891</v>
+        <v>-0.003489698954873891</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0003368825568966195</v>
+        <v>-0.0003368825568966195</v>
       </c>
       <c r="F21" t="n">
-        <v>8.55189462367099e-09</v>
+        <v>-8.55189462367099e-09</v>
       </c>
       <c r="G21" t="n">
-        <v>8.55189462367099e-09</v>
+        <v>-8.55189462367099e-09</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002293914086194435</v>
+        <v>-0.0002293914086194435</v>
       </c>
       <c r="K21" t="n">
-        <v>9.2319333677317e-05</v>
+        <v>-9.2319333677317e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.686477295717361e-05</v>
+        <v>4.686477295717361e-05</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1650,22 +1650,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001443231900548184</v>
+        <v>-0.0001443231900548184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001355562169400311</v>
+        <v>-0.001355562169400311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0116546503440751</v>
+        <v>-0.0116546503440751</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0003211841570207206</v>
+        <v>-0.0003211841570207206</v>
       </c>
       <c r="F22" t="n">
-        <v>3.693598697607169e-07</v>
+        <v>-3.693598697607169e-07</v>
       </c>
       <c r="G22" t="n">
-        <v>3.693598697607169e-07</v>
+        <v>-3.693598697607169e-07</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002560891090434121</v>
+        <v>-0.0002560891090434121</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001243018860569228</v>
+        <v>-0.0001243018860569228</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006605423668754934</v>
+        <v>-0.0006605423668754934</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1706,22 +1706,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002670593380779759</v>
+        <v>-0.0002670593380779759</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004117566995196462</v>
+        <v>-0.0004117566995196462</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01805269561505924</v>
+        <v>-0.01805269561505924</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003072221778492829</v>
+        <v>-0.0003072221778492829</v>
       </c>
       <c r="F23" t="n">
-        <v>1.037008214955657e-06</v>
+        <v>-1.037008214955657e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>1.037008214955657e-06</v>
+        <v>-1.037008214955657e-06</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003124805052671366</v>
+        <v>-0.0003124805052671366</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001396008427819722</v>
+        <v>-0.0001396008427819722</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005931740145223038</v>
+        <v>-0.0005931740145223038</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0002351656133305866</v>
+        <v>-0.0002351656133305866</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005344123304571039</v>
+        <v>-0.0005344123304571039</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01207296277980397</v>
+        <v>-0.01207296277980397</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002944270444094525</v>
+        <v>-0.0002944270444094525</v>
       </c>
       <c r="F24" t="n">
-        <v>1.624922248282123e-06</v>
+        <v>-1.624922248282123e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624922248282123e-06</v>
+        <v>-1.624922248282123e-06</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002227994324223706</v>
+        <v>-0.0002227994324223706</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001306779857909085</v>
+        <v>-0.0001306779857909085</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002408650492577782</v>
+        <v>-0.0002408650492577782</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0002165508846980164</v>
+        <v>-0.0002165508846980164</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007757114645151646</v>
+        <v>-0.0007757114645151646</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0101601260305002</v>
+        <v>-0.0101601260305002</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0002826780707203143</v>
+        <v>-0.0002826780707203143</v>
       </c>
       <c r="F25" t="n">
-        <v>2.166299460027164e-06</v>
+        <v>-2.166299460027164e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.166299460027164e-06</v>
+        <v>-2.166299460027164e-06</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002601022765304852</v>
+        <v>-0.0002601022765304852</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001502501468363193</v>
+        <v>-0.0001502501468363193</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000539969257353613</v>
+        <v>-0.000539969257353613</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1874,22 +1874,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0002629781342599607</v>
+        <v>-0.0002629781342599607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0004511439465593333</v>
+        <v>-0.0004511439465593333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01319672518884425</v>
+        <v>-0.01319672518884425</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0002720020954137256</v>
+        <v>-0.0002720020954137256</v>
       </c>
       <c r="F26" t="n">
-        <v>2.823744795677066e-06</v>
+        <v>-2.823744795677066e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.823744795677066e-06</v>
+        <v>-2.823744795677066e-06</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002687757208554754</v>
+        <v>-0.0002687757208554754</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001555541151988944</v>
+        <v>-0.0001555541151988944</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002871670012193999</v>
+        <v>-0.0002871670012193999</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1930,22 +1930,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00023171943616019</v>
+        <v>-0.00023171943616019</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005562206876507968</v>
+        <v>-0.0005562206876507968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01315978685311625</v>
+        <v>-0.01315978685311625</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0002620974942347366</v>
+        <v>-0.0002620974942347366</v>
       </c>
       <c r="F27" t="n">
-        <v>3.403043386077541e-06</v>
+        <v>-3.403043386077541e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>3.403043386077541e-06</v>
+        <v>-3.403043386077541e-06</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0002430518698252519</v>
+        <v>-0.0002430518698252519</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001587368530313313</v>
+        <v>-0.0001587368530313313</v>
       </c>
       <c r="L27" t="n">
-        <v>0.000266891602028463</v>
+        <v>-0.000266891602028463</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.000238241902864947</v>
+        <v>-0.000238241902864947</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005305296720174214</v>
+        <v>-0.0005305296720174214</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01113702075251709</v>
+        <v>-0.01113702075251709</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000252963724955162</v>
+        <v>-0.000252963724955162</v>
       </c>
       <c r="F28" t="n">
-        <v>3.998648143239908e-06</v>
+        <v>-3.998648143239908e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>3.998648143239908e-06</v>
+        <v>-3.998648143239908e-06</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0002547553661182945</v>
+        <v>-0.0002547553661182945</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001683561754009697</v>
+        <v>-0.0001683561754009697</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003556020102633084</v>
+        <v>-0.0003556020102633084</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2042,22 +2042,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0002483598060953216</v>
+        <v>-0.0002483598060953216</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004651811500349931</v>
+        <v>-0.0004651811500349931</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01115749573307925</v>
+        <v>-0.01115749573307925</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002445280307393146</v>
+        <v>-0.0002445280307393146</v>
       </c>
       <c r="F29" t="n">
-        <v>4.619547658478211e-06</v>
+        <v>-4.619547658478211e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>4.619547658478211e-06</v>
+        <v>-4.619547658478211e-06</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2066,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0002502530836812437</v>
+        <v>-0.0002502530836812437</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0001725147076902492</v>
+        <v>-0.0001725147076902492</v>
       </c>
       <c r="L29" t="n">
-        <v>0.000240666587535151</v>
+        <v>-0.000240666587535151</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.000238408636233495</v>
+        <v>-0.000238408636233495</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005009138123891342</v>
+        <v>-0.0005009138123891342</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01166847870405821</v>
+        <v>-0.01166847870405821</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002366714988012811</v>
+        <v>-0.0002366714988012811</v>
       </c>
       <c r="F30" t="n">
-        <v>5.215569249061949e-06</v>
+        <v>-5.215569249061949e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>5.215569249061949e-06</v>
+        <v>-5.215569249061949e-06</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2122,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00024962465889744</v>
+        <v>-0.00024962465889744</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0001782673159650641</v>
+        <v>-0.0001782673159650641</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000244435609667611</v>
+        <v>-0.000244435609667611</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2154,22 +2154,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0002438019080749387</v>
+        <v>-0.0002438019080749387</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0004543281206741649</v>
+        <v>-0.0004543281206741649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0110306256924363</v>
+        <v>-0.0110306256924363</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002293716367857528</v>
+        <v>-0.0002293716367857528</v>
       </c>
       <c r="F31" t="n">
-        <v>5.825074019249296e-06</v>
+        <v>-5.825074019249296e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>5.825074019249296e-06</v>
+        <v>-5.825074019249296e-06</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0002534174469552788</v>
+        <v>-0.0002534174469552788</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0001839353597895941</v>
+        <v>-0.0001839353597895941</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0002446863189536765</v>
+        <v>-0.0002446863189536765</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0002436405454656887</v>
+        <v>-0.0002436405454656887</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0004476527599669117</v>
+        <v>-0.0004476527599669117</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01039290731806963</v>
+        <v>-0.01039290731806963</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002225620046607262</v>
+        <v>-0.0002225620046607262</v>
       </c>
       <c r="F32" t="n">
-        <v>6.434175382913517e-06</v>
+        <v>-6.434175382913517e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>6.434175382913517e-06</v>
+        <v>-6.434175382913517e-06</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0002498427932786511</v>
+        <v>-0.0002498427932786511</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0001881356768789665</v>
+        <v>-0.0001881356768789665</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0002122635946480065</v>
+        <v>-0.0002122635946480065</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2266,22 +2266,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0002427193893001059</v>
+        <v>-0.0002427193893001059</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004533946860975078</v>
+        <v>-0.0004533946860975078</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01034911338572782</v>
+        <v>-0.01034911338572782</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0002161947780360397</v>
+        <v>-0.0002161947780360397</v>
       </c>
       <c r="F33" t="n">
-        <v>7.040973856163782e-06</v>
+        <v>-7.040973856163782e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>7.040973856163782e-06</v>
+        <v>-7.040973856163782e-06</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0002522455812776702</v>
+        <v>-0.0002522455812776702</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001933578636008341</v>
+        <v>-0.0001933578636008341</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0002138192611006859</v>
+        <v>-0.0002138192611006859</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
